--- a/document/機能一覧.xlsx
+++ b/document/機能一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>質問管理アプリ機能一覧</t>
     <rPh sb="0" eb="2">
@@ -444,6 +444,154 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件登録</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件編集</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件削除</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>案件の検索・一覧表示を行う</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件の新規登録を行う</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている案件の編集を行う</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている案件の削除を行う</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>案件の詳細表示、案件への利用者登録</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -835,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1006,6 +1154,61 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
